--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31H12022</t>
+          <t>43H03154</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -459,18 +459,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43H03154</t>
+          <t>43C22665_C</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng số phương tiện be</t>
+        </is>
+      </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
-        <v>24</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng số phương tiện fe</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
     </row>
     <row r="7">

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C22665_C</t>
+          <t>43C03401_C</t>
         </is>
       </c>
     </row>
@@ -696,6 +696,34 @@
       </c>
       <c r="B37" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mức độ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mức độ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mức độ 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mức độ 4</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C03401_C</t>
+          <t>43C11008_C</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,8 @@
           <t>Tổng số phương tiện fe</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -723,6 +721,64 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>Mức độ 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tên sự kiện</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chuột phải chọn "Xem ảnh camera"</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mở tab mới và chuyển tới module "Quản lý hình ảnh từ camera"</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tổng số xe đang ẩn</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>link tải excel hiện trạng hệ thống</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_04_23_14_47_03.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ân xe - tên phương tiện 1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12B12822_C</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C11008_C</t>
+          <t>43C06120_C</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chuột phải chọn "Xem ảnh camera"</t>
+          <t>Đóng</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mở tab mới và chuyển tới module "Quản lý hình ảnh từ camera"</t>
+          <t>Đóng Popup "Thêm mới chuyến"</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -447,7 +447,17 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>du lieu</t>
+          <t>du lieu/api</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>popup</t>
         </is>
       </c>
     </row>
@@ -459,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C06120_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
     </row>
@@ -483,15 +493,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Biển số</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>43C05815_C</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>43C05815_C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43C05815_C</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>thời gian</t>
+          <t>Giờ cập nhật</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-04-03T11:28:00</t>
+          <t>17:39:04 02/05/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17:38:45 02/05/2024</t>
         </is>
       </c>
     </row>
@@ -502,7 +539,32 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11   km/h</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Xe sắp đến hạn thu phí</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Vận tốc cơ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14   km/h</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -512,7 +574,68 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.3169</v>
+        <v>213.1604</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>213.16  km</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dừng đỗ</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>32 lần</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Máy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bật</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>điều hòa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tắt</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>địa chỉ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ICD HÒA CẦM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ICD HÒA CẦM</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -521,21 +644,36 @@
           <t>nhiên liệu</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>265400</t>
+      <c r="B16" t="n">
+        <v>236</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  236L</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nhiêệt độ</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>999</t>
+          <t>nhiệt độ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>điện thoại</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0905266552</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0905266552</t>
         </is>
       </c>
     </row>
@@ -547,7 +685,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHAM THANH THUAN</t>
+          <t>LE CHI VINH</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LE CHI VINH</t>
         </is>
       </c>
     </row>
@@ -559,7 +702,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>48166002843</t>
+          <t>790161060561</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>790161060561</t>
         </is>
       </c>
     </row>
@@ -570,7 +718,12 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17 phút</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -580,7 +733,12 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90</v>
+        <v>392</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>392 phút</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -592,6 +750,11 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0 lần</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -604,6 +767,28 @@
           <t>Thành phố Đà Nẵng</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Thông tin thẻ nhớ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bình thường</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bình thường</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -611,11 +796,6 @@
           <t>loại hình vận tải</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BGT_TRANPORTTYPES_CONTAINER</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -625,12 +805,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01052024</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
+          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -638,7 +820,7 @@
           <t>tên gói cước</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>SCVINAQCB010</t>
         </is>
@@ -650,7 +832,7 @@
           <t>nhà mạng</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Vina</t>
         </is>
@@ -662,8 +844,34 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>10240</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10240 (MB)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Số ngày lưu trữ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Đang cập nhật</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Số kênh lưu trữ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Đang cập nhật</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -672,8 +880,10 @@
           <t>tính năng định vị</t>
         </is>
       </c>
-      <c r="B35" t="b">
-        <v>1</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -682,8 +892,10 @@
           <t>tính năng định ảnh</t>
         </is>
       </c>
-      <c r="B36" t="b">
-        <v>1</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -692,8 +904,10 @@
           <t>tính năng định video</t>
         </is>
       </c>
-      <c r="B37" t="b">
-        <v>1</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -732,7 +946,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Đóng</t>
+          <t>Biển số</t>
         </is>
       </c>
     </row>
@@ -744,7 +958,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Đóng Popup "Thêm mới chuyến"</t>
+          <t>Dữ liệu Thông tin xe - Hiện trạng hệ thống - API phải giống nhau</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -427,8 +427,8 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
     </row>
@@ -523,12 +523,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:39:04 02/05/2024</t>
+          <t>08:10:52 04/05/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:38:45 02/05/2024</t>
+          <t>08:10:32 04/05/2024</t>
         </is>
       </c>
     </row>
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11   km/h</t>
+          <t>46   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -559,11 +559,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14   km/h</t>
+          <t>25   km/h</t>
         </is>
       </c>
     </row>
@@ -574,11 +574,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.1604</v>
+        <v>148.503</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>213.16  km</t>
+          <t>148.50  km</t>
         </is>
       </c>
     </row>
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>32 lần</t>
+          <t>4 lần</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ICD HÒA CẦM</t>
+          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ICD HÒA CẦM</t>
+          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Thời gian dừng đỗ</t>
         </is>
       </c>
     </row>
@@ -645,11 +652,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  236L</t>
+          <t xml:space="preserve">  321L</t>
         </is>
       </c>
     </row>
@@ -668,12 +675,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0905266552</t>
+          <t>0905546611</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0905266552</t>
+          <t>0905546611</t>
         </is>
       </c>
     </row>
@@ -685,12 +692,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LE CHI VINH</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LE CHI VINH</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
     </row>
@@ -702,12 +709,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>790161060561</t>
+          <t>480122493687</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>790161060561</t>
+          <t>480122493687</t>
         </is>
       </c>
     </row>
@@ -718,11 +725,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17 phút</t>
+          <t>6 phút</t>
         </is>
       </c>
     </row>
@@ -733,11 +740,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>392</v>
+        <v>180</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>392 phút</t>
+          <t>180 phút</t>
         </is>
       </c>
     </row>
@@ -889,7 +896,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tính năng định ảnh</t>
+          <t>tính năng ảnh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -901,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tính năng định video</t>
+          <t>tính năng video</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -946,7 +953,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Biển số</t>
+          <t>Chuột phải vào map chọn"Tìm xe trong vùng"</t>
         </is>
       </c>
     </row>
@@ -958,7 +965,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dữ liệu Thông tin xe - Hiện trạng hệ thống - API phải giống nhau</t>
+          <t>Click vào map để chọn khoanh vùng =&gt; hiển thị popup "Tìm xe trong vùng"</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43H02198</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
     </row>
@@ -523,12 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:10:52 04/05/2024</t>
+          <t>13:23:23 08/05/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:10:32 04/05/2024</t>
+          <t>13:22:53 08/05/2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13:23</t>
         </is>
       </c>
     </row>
@@ -539,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>46   km/h</t>
+          <t>38   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Xe sắp đến hạn thu phí</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -559,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25   km/h</t>
+          <t>39   km/h</t>
         </is>
       </c>
     </row>
@@ -574,11 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.503</v>
+        <v>131.1189</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>148.50  km</t>
+          <t>129.25  km</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>129.25</t>
         </is>
       </c>
     </row>
@@ -589,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4 lần</t>
+          <t>16 lần</t>
         </is>
       </c>
     </row>
@@ -617,7 +627,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bật</t>
         </is>
       </c>
     </row>
@@ -629,12 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+          <t>Quốc Lộ 9, X. Cam Hiếu, H. Cam Lộ, Quảng Trị</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+          <t>Quốc Lộ 9, X. Cam Hiếu, H. Cam Lộ, Quảng Trị</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Quốc Lộ 9, X. Cam Hiếu, H. Cam Lộ, Quảng Trị</t>
         </is>
       </c>
     </row>
@@ -644,6 +664,11 @@
           <t>Thời gian dừng đỗ</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -652,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  321L</t>
+          <t xml:space="preserve">  273L</t>
         </is>
       </c>
     </row>
@@ -666,6 +691,11 @@
           <t>nhiệt độ</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-999</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0913112430</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0913112430</t>
         </is>
       </c>
     </row>
@@ -692,12 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>LU DINH HIEU</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>LU DINH HIEU</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LU DINH HIEU</t>
         </is>
       </c>
     </row>
@@ -709,12 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>480118480930</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>480118480930</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>480118480930</t>
         </is>
       </c>
     </row>
@@ -725,11 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6 phút</t>
+          <t>98 phút</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -740,11 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>180 phút</t>
+          <t>231 phút</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -812,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
     </row>
@@ -829,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVINAQCB010</t>
+          <t>SCVTQC030</t>
         </is>
       </c>
     </row>
@@ -841,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vina</t>
+          <t>Viettel</t>
         </is>
       </c>
     </row>
@@ -853,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10240 (MB)</t>
+          <t>30720 (MB)</t>
         </is>
       </c>
     </row>
@@ -953,7 +1003,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chuột phải vào map chọn"Tìm xe trong vùng"</t>
+          <t>Click vào checkbox "Hiển thị địa chỉ"</t>
         </is>
       </c>
     </row>
@@ -965,7 +1015,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Click vào map để chọn khoanh vùng =&gt; hiển thị popup "Tìm xe trong vùng"</t>
+          <t>Hiển thị thêm trường "Địa chỉ" ở danh sách lộ trình</t>
         </is>
       </c>
     </row>
@@ -976,7 +1026,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -987,7 +1037,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_04_23_14_47_03.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_05_08_13_11_52.xlsx</t>
         </is>
       </c>
     </row>
@@ -1000,6 +1050,18 @@
       <c r="B46" t="inlineStr">
         <is>
           <t>12B12822_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Thời gian bắt đầu chạy tool</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>17:31:24</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43H03217</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
     </row>
@@ -521,16 +521,6 @@
           <t>Giờ cập nhật</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>08:10:52 04/05/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>08:10:32 04/05/2024</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -538,19 +528,6 @@
           <t>vận tốc gps</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>46</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>46   km/h</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Xe sắp đến hạn thu phí</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -558,14 +535,6 @@
           <t>Vận tốc cơ</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>37</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>25   km/h</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -573,14 +542,6 @@
           <t>km trong ngày</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>148.503</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>148.50  km</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -588,14 +549,6 @@
           <t>Dừng đỗ</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4 lần</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -603,11 +556,6 @@
           <t>Máy</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bật</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -615,11 +563,6 @@
           <t>điều hòa</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Tắt</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -627,16 +570,6 @@
           <t>địa chỉ</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -651,14 +584,6 @@
           <t>nhiên liệu</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>321</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  321L</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -673,16 +598,6 @@
           <t>điện thoại</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0905546611</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0905546611</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -690,16 +605,6 @@
           <t>lái xe</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NGUYEN VAN TAM</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NGUYEN VAN TAM</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -707,16 +612,6 @@
           <t>giấy phép lái xe</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>480122493687</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>480122493687</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -724,14 +619,6 @@
           <t>thời gian lái xe liên tục</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>6 phút</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -739,14 +626,6 @@
           <t>thời gian lái xe trong ngày</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>180</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>180 phút</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -754,14 +633,6 @@
           <t>số lần quá tốc độ</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0 lần</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -769,16 +640,6 @@
           <t>sở quản lý</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Thành phố Đà Nẵng</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Thành phố Đà Nẵng</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -786,16 +647,6 @@
           <t>Thông tin thẻ nhớ</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Bình thường</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Bình thường</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -810,16 +661,6 @@
           <t>thời hạn đóng phí</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -827,11 +668,6 @@
           <t>tên gói cước</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SCVINAQCB010</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -839,11 +675,6 @@
           <t>nhà mạng</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Vina</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -851,11 +682,6 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>10240 (MB)</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -863,11 +689,6 @@
           <t>Số ngày lưu trữ</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -875,11 +696,6 @@
           <t>Số kênh lưu trữ</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -887,11 +703,6 @@
           <t>tính năng định vị</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -899,11 +710,6 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -911,11 +717,6 @@
           <t>tính năng video</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -953,7 +754,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chuột phải vào map chọn"Tìm xe trong vùng"</t>
+          <t>Chuột phải chọn "hiện trạng"</t>
         </is>
       </c>
     </row>
@@ -965,7 +766,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Click vào map để chọn khoanh vùng =&gt; hiển thị popup "Tìm xe trong vùng"</t>
+          <t>Hiển thị Popup "Thông tin xe"</t>
         </is>
       </c>
     </row>
@@ -976,7 +777,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -987,7 +788,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_04_23_14_47_03.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_05_06_17_45_25.xlsx</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43H02198</t>
+          <t>43H03154</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:23:23 08/05/2024</t>
+          <t>09:10:01 09/05/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:22:53 08/05/2024</t>
+          <t>09:09:21 09/05/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>09:09</t>
         </is>
       </c>
     </row>
@@ -548,12 +548,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38   km/h</t>
+          <t>44   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>39   km/h</t>
+          <t>44   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.1189</v>
+        <v>204.8663</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>129.25  km</t>
+          <t>204.87  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>129.25</t>
+          <t>204.87</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16 lần</t>
+          <t>8 lần</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 9, X. Cam Hiếu, H. Cam Lộ, Quảng Trị</t>
+          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 9, X. Cam Hiếu, H. Cam Lộ, Quảng Trị</t>
+          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 9, X. Cam Hiếu, H. Cam Lộ, Quảng Trị</t>
+          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>272</v>
+        <v>384</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  273L</t>
+          <t xml:space="preserve">  384L</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>98 phút</t>
+          <t>134 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>231 phút</t>
+          <t>263 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Click vào checkbox "Hiển thị địa chỉ"</t>
+          <t>Tìm kiếm</t>
         </is>
       </c>
     </row>
@@ -1013,11 +1013,6 @@
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Hiển thị thêm trường "Địa chỉ" ở danh sách lộ trình</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1037,7 +1032,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_05_08_13_11_52.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_05_09_14_43_09.xlsx</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1056,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:31:24</t>
+          <t>17:43:58</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -1013,11 +1013,6 @@
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Kích vào nút TÌm kiếm --&gt; Hiển thị danh sách nhóm xe trên lưới</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1061,7 +1056,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:12:57</t>
+          <t>17:04:29</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tìm kiếm</t>
+          <t>Mở báo cáo</t>
         </is>
       </c>
     </row>
@@ -1013,6 +1013,11 @@
           <t>Kết quả</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1056,7 +1061,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:04:29</t>
+          <t>16:18:35</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mở báo cáo</t>
+          <t>Xuất Excel</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,8 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1062,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16:18:35</t>
+          <t>17:40:28</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:40:28</t>
+          <t>17:41:02</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -427,8 +427,8 @@
   </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77C17619_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
     </row>
@@ -937,6 +937,9 @@
           <t>tính năng định vị</t>
         </is>
       </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Có</t>
@@ -949,6 +952,9 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Có</t>
@@ -961,6 +967,9 @@
           <t>tính năng video</t>
         </is>
       </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Có</t>
@@ -1003,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xuất Excel</t>
+          <t>Check API trường "Video"</t>
         </is>
       </c>
     </row>
@@ -1015,8 +1024,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Xuất excel : Các cột trên lưới = các cột excel
-Định dạng cột giống nhau</t>
+          <t>Gọi tới API: http://api.gps.binhanh.vn/api/bacam/getpackagebyxnplate</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1070,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:41:02</t>
+          <t>16:07:48</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43C22684_C</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Check API trường "Video"</t>
+          <t>Gán tất cả nhóm xe</t>
         </is>
       </c>
     </row>
@@ -1022,11 +1022,6 @@
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Gọi tới API: http://api.gps.binhanh.vn/api/bacam/getpackagebyxnplate</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1070,7 +1065,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16:07:48</t>
+          <t>17:24:33</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C22684_C</t>
+          <t>43C01339_C</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C11214_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C11214_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C11214_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:31:56 13/05/2024</t>
+          <t>10:00:13 29/05/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:31:16 13/05/2024</t>
+          <t>09:59:52 29/05/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8   km/h</t>
+          <t>53   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7   km/h</t>
+          <t>53   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.6211</v>
+        <v>50.058</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15.66  km</t>
+          <t>50.06  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16.62</t>
+          <t>50.06</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6 lần</t>
+          <t>5 lần</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nguyễn Lương Bằng, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
+          <t>9E, Davasan, Seponh, Savannakhet, Lào</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Tất Thành, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
+          <t>9E, Davasan, Seponh, Savannakhet, Lào</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nguyễn Tất Thành, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
+          <t>9E, Davasan, Seponh, Savannakhet, Lào</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  152L</t>
+          <t xml:space="preserve">  220L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0706083832</t>
+          <t>937478662</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0706083832</t>
+          <t>937478662</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>NGUYEN CONG TRONG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>NGUYEN CONG TRONG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>NGUYEN CONG TRONG</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>310166873935</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>310166873935</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>310166873935</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>36 phút</t>
+          <t>57 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>37 phút</t>
+          <t>80 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gán tất cả nhóm xe</t>
+          <t>Check API trường "Hình ảnh"</t>
         </is>
       </c>
     </row>
@@ -1022,6 +1022,11 @@
           <t>Kết quả</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Gọi tới API: http://api.gps.binhanh.vn/api/bacam/getpackagebyxnplate</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1029,8 +1034,10 @@
           <t>Tổng số xe đang ẩn</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>8</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1041,7 +1048,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_05_13_14_49_57.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_05_29_17_01_33.xlsx</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1072,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:24:33</t>
+          <t>17:28:38</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C01339_C</t>
+          <t>77C17619_C</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10:00:13 29/05/2024</t>
+          <t>11:14:01 30/05/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:59:52 29/05/2024</t>
+          <t>11:13:11 30/05/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:13</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>53   km/h</t>
+          <t>4   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>53   km/h</t>
+          <t>0   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.058</v>
+        <v>149.804</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>50.06  km</t>
+          <t>149.80  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50.06</t>
+          <t>149.80</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5 lần</t>
+          <t>14 lần</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9E, Davasan, Seponh, Savannakhet, Lào</t>
+          <t>Nguyễn Văn Cừ, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9E, Davasan, Seponh, Savannakhet, Lào</t>
+          <t>Tạ Quang Bửu, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9E, Davasan, Seponh, Savannakhet, Lào</t>
+          <t>Tạ Quang Bửu, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  220L</t>
+          <t xml:space="preserve">  237L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>937478662</t>
+          <t>0905546611</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>937478662</t>
+          <t>0905546611</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122493687</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122493687</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122493687</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>57 phút</t>
+          <t>101 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>80 phút</t>
+          <t>211 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVTQC030</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Viettel</t>
+          <t>Vina</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30720 (MB)</t>
+          <t>10240 (MB)</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Check API trường "Hình ảnh"</t>
+          <t>Mở báo cáo hoạt động</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gọi tới API: http://api.gps.binhanh.vn/api/bacam/getpackagebyxnplate</t>
+          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_05_29_17_01_33.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_05_30_13_10_45.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:28:38</t>
+          <t>17:27:56</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C11214_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C11214_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C11214_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11:14:01 30/05/2024</t>
+          <t>07:33:22 31/05/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:13:11 30/05/2024</t>
+          <t>07:33:22 31/05/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>07:33</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4   km/h</t>
+          <t>39   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0   km/h</t>
+          <t>38   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.804</v>
+        <v>17.5741</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>149.80  km</t>
+          <t>17.57  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>149.80</t>
+          <t>17.57</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14 lần</t>
+          <t>6 lần</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Cừ, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
+          <t>Phố Hoàng Sa, X. Duy Phước, H. Duy Xuyên, Quảng Nam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tạ Quang Bửu, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
+          <t>Phố Hoàng Sa, X. Duy Phước, H. Duy Xuyên, Quảng Nam</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tạ Quang Bửu, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
+          <t>Phố Hoàng Sa, X. Duy Phước, H. Duy Xuyên, Quảng Nam</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  237L</t>
+          <t xml:space="preserve">  364L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0706083832</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0706083832</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>460166670286</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>460166670286</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>460166670286</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>101 phút</t>
+          <t>5 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>211 phút</t>
+          <t>29 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVINAQCB010</t>
+          <t>SCVTQC030</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vina</t>
+          <t>Viettel</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10240 (MB)</t>
+          <t>30720 (MB)</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mở báo cáo hoạt động</t>
+          <t>Hủy</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Menu Báo cáo --&gt; Mở báo cáo --&gt; Đúng giao diện báo cáo</t>
+          <t>Đóng Popup</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_05_30_13_10_45.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_05_31_17_18_02.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:27:56</t>
+          <t>17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>C:\Users\truongtq.BA\PycharmProjects\pythonProject\ba_v2\excel</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77C17619_C</t>
+          <t>43H03217</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C11214_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C11214_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C11214_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>07:33:22 31/05/2024</t>
+          <t>08:28:58 03/06/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:33:22 31/05/2024</t>
+          <t>08:27:57 03/06/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07:33</t>
+          <t>08:28</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>39   km/h</t>
+          <t>49   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>38   km/h</t>
+          <t>50   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.5741</v>
+        <v>23.1137</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17.57  km</t>
+          <t>23.11  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.57</t>
+          <t>23.11</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6 lần</t>
+          <t>7 lần</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Phố Hoàng Sa, X. Duy Phước, H. Duy Xuyên, Quảng Nam</t>
+          <t>Quốc Lộ 1A, P. Điện An, TX. Điện Bàn, Quảng Nam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phố Hoàng Sa, X. Duy Phước, H. Duy Xuyên, Quảng Nam</t>
+          <t>Quốc Lộ 1A, P. Điện Nam Trung, TX. Điện Bàn, Quảng Nam</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Phố Hoàng Sa, X. Duy Phước, H. Duy Xuyên, Quảng Nam</t>
+          <t>Cầu Vĩnh Điện, P. Điện Nam Trung, TX. Điện Bàn, Quảng Nam</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364</v>
+        <v>47</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  364L</t>
+          <t xml:space="preserve">  47L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0706083832</t>
+          <t>0905266552</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0706083832</t>
+          <t>0905266552</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>LE CHI VINH</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>LE CHI VINH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>LE CHI VINH</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>790161060561</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>790161060561</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>790161060561</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5 phút</t>
+          <t>59 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>29 phút</t>
+          <t>62 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVTQC030</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Viettel</t>
+          <t>Vina</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30720 (MB)</t>
+          <t>10240 (MB)</t>
         </is>
       </c>
     </row>
@@ -937,9 +937,6 @@
           <t>tính năng định vị</t>
         </is>
       </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Có</t>
@@ -952,9 +949,6 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
-      <c r="B36" t="b">
-        <v>1</v>
-      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Có</t>
@@ -967,9 +961,6 @@
           <t>tính năng video</t>
         </is>
       </c>
-      <c r="B37" t="b">
-        <v>1</v>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Có</t>
@@ -1048,7 +1039,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_05_31_17_18_02.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_03_17_02_03.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1063,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:16</t>
+          <t>17:00:29</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43H03217</t>
+          <t>43C01339_C</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C03401_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
     </row>
@@ -521,19 +521,9 @@
           <t>Giờ cập nhật</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>08:28:58 03/06/2024</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:27:57 03/06/2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>08:28</t>
+          <t>02:51:45 05/06/2024</t>
         </is>
       </c>
     </row>
@@ -543,17 +533,9 @@
           <t>vận tốc gps</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>53</v>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>49   km/h</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>50</t>
+          <t>38   km/h</t>
         </is>
       </c>
     </row>
@@ -563,12 +545,9 @@
           <t>Vận tốc cơ</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>53</v>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>50   km/h</t>
+          <t>0   km/h</t>
         </is>
       </c>
     </row>
@@ -578,17 +557,9 @@
           <t>km trong ngày</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>23.1137</v>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23.11  km</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.11</t>
+          <t>5 phút</t>
         </is>
       </c>
     </row>
@@ -598,12 +569,9 @@
           <t>Dừng đỗ</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7 lần</t>
+          <t>0 lần</t>
         </is>
       </c>
     </row>
@@ -615,7 +583,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>62.98  km</t>
         </is>
       </c>
     </row>
@@ -630,11 +598,6 @@
           <t>Bật</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Bật</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -642,19 +605,9 @@
           <t>địa chỉ</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Quốc Lộ 1A, P. Điện An, TX. Điện Bàn, Quảng Nam</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, P. Điện Nam Trung, TX. Điện Bàn, Quảng Nam</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Cầu Vĩnh Điện, P. Điện Nam Trung, TX. Điện Bàn, Quảng Nam</t>
+          <t>Tắt</t>
         </is>
       </c>
     </row>
@@ -664,11 +617,6 @@
           <t>Thời gian dừng đỗ</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -676,14 +624,6 @@
           <t>nhiên liệu</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>47</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  47L</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -691,11 +631,6 @@
           <t>nhiệt độ</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-999</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -703,16 +638,6 @@
           <t>điện thoại</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0905266552</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0905266552</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -720,21 +645,6 @@
           <t>lái xe</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LE CHI VINH</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LE CHI VINH</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LE CHI VINH</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -742,21 +652,6 @@
           <t>giấy phép lái xe</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>790161060561</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>790161060561</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>790161060561</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,19 +659,6 @@
           <t>thời gian lái xe liên tục</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>59</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>59 phút</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -784,19 +666,6 @@
           <t>thời gian lái xe trong ngày</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>62</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>62 phút</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -804,14 +673,6 @@
           <t>số lần quá tốc độ</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0 lần</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -819,16 +680,6 @@
           <t>sở quản lý</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Thành phố Đà Nẵng</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Thành phố Đà Nẵng</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -836,16 +687,6 @@
           <t>Thông tin thẻ nhớ</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Bình thường</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Bình thường</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -860,16 +701,6 @@
           <t>thời hạn đóng phí</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -877,11 +708,6 @@
           <t>tên gói cước</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SCVINAQCB010</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -889,11 +715,6 @@
           <t>nhà mạng</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Vina</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -901,11 +722,6 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>10240 (MB)</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -913,11 +729,6 @@
           <t>Số ngày lưu trữ</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -925,11 +736,6 @@
           <t>Số kênh lưu trữ</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Đang cập nhật</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -937,10 +743,8 @@
           <t>tính năng định vị</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
+      <c r="B35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -949,10 +753,8 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
+      <c r="B36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -961,10 +763,8 @@
           <t>tính năng video</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Có</t>
-        </is>
+      <c r="B37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1003,7 +803,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hủy</t>
+          <t>Thêm nhanh điểm</t>
         </is>
       </c>
     </row>
@@ -1013,11 +813,6 @@
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Đóng Popup</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1039,7 +834,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_03_17_02_03.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_05_02_36_35.xlsx</t>
         </is>
       </c>
     </row>
@@ -1063,7 +858,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:00:29</t>
+          <t>17:40:32</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C03401_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -521,9 +521,19 @@
           <t>Giờ cập nhật</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>09:27:14 11/06/2024</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>02:51:45 05/06/2024</t>
+          <t>09:27:14 11/06/2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>09:27</t>
         </is>
       </c>
     </row>
@@ -533,9 +543,17 @@
           <t>vận tốc gps</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38   km/h</t>
+          <t>32   km/h</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -545,9 +563,12 @@
           <t>Vận tốc cơ</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0   km/h</t>
+          <t>32   km/h</t>
         </is>
       </c>
     </row>
@@ -557,9 +578,17 @@
           <t>km trong ngày</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>144.9143</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5 phút</t>
+          <t>144.91  km</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>144.91</t>
         </is>
       </c>
     </row>
@@ -569,9 +598,12 @@
           <t>Dừng đỗ</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0 lần</t>
+          <t>5 lần</t>
         </is>
       </c>
     </row>
@@ -583,7 +615,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>62.98  km</t>
+          <t>Bật</t>
         </is>
       </c>
     </row>
@@ -598,6 +630,11 @@
           <t>Bật</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bật</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -605,9 +642,19 @@
           <t>địa chỉ</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
         </is>
       </c>
     </row>
@@ -617,6 +664,11 @@
           <t>Thời gian dừng đỗ</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +676,14 @@
           <t>nhiên liệu</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>408</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  408L</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -631,6 +691,11 @@
           <t>nhiệt độ</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-999</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -638,6 +703,16 @@
           <t>điện thoại</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>937478662</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>937478662</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -645,6 +720,21 @@
           <t>lái xe</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NGUYEN CONG TRONG</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NGUYEN CONG TRONG</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NGUYEN CONG TRONG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -652,6 +742,21 @@
           <t>giấy phép lái xe</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>310166873935</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>310166873935</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>310166873935</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -659,6 +764,19 @@
           <t>thời gian lái xe liên tục</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>208</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>208 phút</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -666,6 +784,19 @@
           <t>thời gian lái xe trong ngày</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>208</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>208 phút</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -673,6 +804,14 @@
           <t>số lần quá tốc độ</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0 lần</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -680,6 +819,16 @@
           <t>sở quản lý</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Thành phố Đà Nẵng</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -687,6 +836,16 @@
           <t>Thông tin thẻ nhớ</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bình thường</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bình thường</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -701,6 +860,16 @@
           <t>thời hạn đóng phí</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -708,6 +877,11 @@
           <t>tên gói cước</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SCVTQC030</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -715,6 +889,11 @@
           <t>nhà mạng</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Viettel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -722,6 +901,11 @@
           <t>dung lượng gói cước</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>30720 (MB)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -729,6 +913,11 @@
           <t>Số ngày lưu trữ</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Đang cập nhật</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -736,6 +925,11 @@
           <t>Số kênh lưu trữ</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Đang cập nhật</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -746,6 +940,11 @@
       <c r="B35" t="b">
         <v>1</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -756,6 +955,11 @@
       <c r="B36" t="b">
         <v>1</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -766,6 +970,11 @@
       <c r="B37" t="b">
         <v>1</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Có</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -803,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Thêm nhanh điểm</t>
+          <t>Đăng xuất tài khoản</t>
         </is>
       </c>
     </row>
@@ -813,6 +1022,11 @@
           <t>Kết quả</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Kich vào Icon đăng xuất tài khoản --&gt; Mở lên popup thông báo</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -834,7 +1048,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_05_02_36_35.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_11_02_36_52.xlsx</t>
         </is>
       </c>
     </row>
@@ -858,7 +1072,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:40:32</t>
+          <t>17:15:06</t>
         </is>
       </c>
     </row>
@@ -866,6 +1080,18 @@
       <c r="B48" t="inlineStr">
         <is>
           <t>C:\Users\truongtq.BA\PycharmProjects\pythonProject\ba_v2\excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>tên tài khoản ngẫu nhiên</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>truongtest68395932</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C01339_C</t>
+          <t>43C01340_C</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C10911_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:27:14 11/06/2024</t>
+          <t>08:29:22 12/06/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:27:14 11/06/2024</t>
+          <t>08:28:52 12/06/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>08:29</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>32   km/h</t>
+          <t>55   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>32   km/h</t>
+          <t>53   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.9143</v>
+        <v>157.0622</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>144.91  km</t>
+          <t>157.06  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>144.91</t>
+          <t>157.06</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5 lần</t>
+          <t>4 lần</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+          <t>Quốc Lộ 9, X. Tân Long, H. Hướng Hóa, Quảng Trị</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+          <t>Quốc Lộ 9, X. Tân Long, H. Hướng Hóa, Quảng Trị</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+          <t>Quốc Lộ 9, X. Tân Long, H. Hướng Hóa, Quảng Trị</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>408</v>
+        <v>279</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  408L</t>
+          <t xml:space="preserve">  279L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>937478662</t>
+          <t>0905546611</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>937478662</t>
+          <t>0905546611</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>NGUYEN VAN TAM</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122493687</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122493687</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122493687</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>208 phút</t>
+          <t>124 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>208 phút</t>
+          <t>215 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVTQC030</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Viettel</t>
+          <t>Vina</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30720 (MB)</t>
+          <t>10240 (MB)</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Đăng xuất tài khoản</t>
+          <t>Gán tất cả xe</t>
         </is>
       </c>
     </row>
@@ -1022,11 +1022,6 @@
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Kich vào Icon đăng xuất tài khoản --&gt; Mở lên popup thông báo</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1048,7 +1043,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_11_02_36_52.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_12_08_18_14.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1067,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:15:06</t>
+          <t>17:42:54</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1086,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>truongtest68395932</t>
+          <t>truongtest99395825</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C01340_C</t>
+          <t>43H03154</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C07724_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:29:22 12/06/2024</t>
+          <t>13:20:31 14/06/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:28:52 12/06/2024</t>
+          <t>13:20:00 14/06/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>13:20</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>55   km/h</t>
+          <t>44   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>53   km/h</t>
+          <t>43   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.0622</v>
+        <v>178.8907</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>157.06  km</t>
+          <t>178.89  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>157.06</t>
+          <t>178.89</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4 lần</t>
+          <t>8 lần</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 9, X. Tân Long, H. Hướng Hóa, Quảng Trị</t>
+          <t>Lê Duẩn, P. 1, TX. Quảng Trị, Quảng Trị</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 9, X. Tân Long, H. Hướng Hóa, Quảng Trị</t>
+          <t>Lê Duẩn, X. Hải Phú, H. Hải Lăng, Quảng Trị</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 9, X. Tân Long, H. Hướng Hóa, Quảng Trị</t>
+          <t>Lê Duẩn, P. 1, TX. Quảng Trị, Quảng Trị</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  279L</t>
+          <t xml:space="preserve">  399L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0913112430</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0913112430</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>LU DINH HIEU</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>LU DINH HIEU</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>LU DINH HIEU</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>480118480930</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>480118480930</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>480118480930</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>124 phút</t>
+          <t>203 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>215 phút</t>
+          <t>266 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>266</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVINAQCB010</t>
+          <t>SCVTQC030</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vina</t>
+          <t>Viettel</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10240 (MB)</t>
+          <t>30720 (MB)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_12_08_18_14.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_14_13_08_25.xlsx</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:42:54</t>
+          <t>15:21:44</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>truongtest99395825</t>
+          <t>truongtest34265184</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43H03154</t>
+          <t>43H06592</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C07724_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C07724_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C07724_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:20:31 14/06/2024</t>
+          <t>09:19:09 02/07/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:20:00 14/06/2024</t>
+          <t>09:18:09 02/07/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>09:18</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>44   km/h</t>
+          <t>34   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>43   km/h</t>
+          <t>36   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.8907</v>
+        <v>87.3809</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>178.89  km</t>
+          <t>85.24  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>178.89</t>
+          <t>85.24</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8 lần</t>
+          <t>19 lần</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, P. 1, TX. Quảng Trị, Quảng Trị</t>
+          <t>Hùng Vương, X. Duy Sơn, H. Duy Xuyên, Quảng Nam</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Hải Phú, H. Hải Lăng, Quảng Trị</t>
+          <t>Hùng Vương, X. Duy Trung, H. Duy Xuyên, Quảng Nam</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, P. 1, TX. Quảng Trị, Quảng Trị</t>
+          <t>Hùng Vương, X. Duy Trung, H. Duy Xuyên, Quảng Nam</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>399</v>
+        <v>270</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  399L</t>
+          <t xml:space="preserve">  270L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0913112430</t>
+          <t>0905266552</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0913112430</t>
+          <t>0905266552</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LU DINH HIEU</t>
+          <t>LE VUONG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LU DINH HIEU</t>
+          <t>LE VUONG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LU DINH HIEU</t>
+          <t>LE VUONG</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>480118480930</t>
+          <t>480122481248</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>480118480930</t>
+          <t>480122481248</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>480118480930</t>
+          <t>480122481248</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>203 phút</t>
+          <t>124 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>266 phút</t>
+          <t>171 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVTQC030</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Viettel</t>
+          <t>Vina</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30720 (MB)</t>
+          <t>10240 (MB)</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gán tất cả xe</t>
+          <t>Click vào checkbox "Hiển thị nhiên liệu"</t>
         </is>
       </c>
     </row>
@@ -1022,6 +1022,11 @@
           <t>Kết quả</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hiển thị thêm trường "N/Liệu" ở danh sách lộ trình</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1043,7 +1048,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_06_14_13_08_25.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_07_02_09_07_23.xlsx</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1072,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15:21:44</t>
+          <t>10:50:42</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1091,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>truongtest34265184</t>
+          <t>truongtest2990474</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -425,9 +425,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43H06592</t>
+          <t>43C01338_C</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C10972_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C10972_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C10972_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:19:09 02/07/2024</t>
+          <t>13:02:24 17/07/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:18:09 02/07/2024</t>
+          <t>13:01:55 17/07/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>13:02</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34   km/h</t>
+          <t>49   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>36   km/h</t>
+          <t>0   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.3809</v>
+        <v>126.711</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>85.24  km</t>
+          <t>124.02  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.24</t>
+          <t>124.02</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19 lần</t>
+          <t>11 lần</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hùng Vương, X. Duy Sơn, H. Duy Xuyên, Quảng Nam</t>
+          <t>Quốc Lộ 1A, X. Lộc Tiến, H. Phú Lộc, Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hùng Vương, X. Duy Trung, H. Duy Xuyên, Quảng Nam</t>
+          <t>Quốc Lộ 1A, X. Lộc Tiến, H. Phú Lộc, Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hùng Vương, X. Duy Trung, H. Duy Xuyên, Quảng Nam</t>
+          <t>Quốc Lộ 1A, X. Lộc Tiến, H. Phú Lộc, Thừa Thiên Huế</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  270L</t>
+          <t xml:space="preserve">  150L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0905266552</t>
+          <t>0706083832</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0905266552</t>
+          <t>0706083832</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LE VUONG</t>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LE VUONG</t>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LE VUONG</t>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>480122481248</t>
+          <t>460166670286</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>480122481248</t>
+          <t>460166670286</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>480122481248</t>
+          <t>460166670286</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>124 phút</t>
+          <t>13 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>171 phút</t>
+          <t>54 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Click vào checkbox "Hiển thị nhiên liệu"</t>
+          <t>Xuất Excel</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,8 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hiển thị thêm trường "N/Liệu" ở danh sách lộ trình</t>
+          <t>Xuất excel : Các cột trên lưới = các cột excel
+Định dạng cột giống nhau</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1049,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_07_02_09_07_23.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_07_17_12_51_24.xlsx</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1073,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10:50:42</t>
+          <t>17:10:58</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1092,43 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>truongtest2990474</t>
+          <t>truongtest78439074</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>biển số</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>43C01338_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>time update 1p</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12:49:53 17/07/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>số lần cập nhật</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43C03401_C</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C10972_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C10972_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C10972_C</t>
+          <t>43C14819_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:02:24 17/07/2024</t>
+          <t>12:01:25 23/08/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:01:55 17/07/2024</t>
+          <t>12:00:35 23/08/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>49   km/h</t>
+          <t>29   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>126.711</v>
+        <v>65.7653</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>124.02  km</t>
+          <t>65.77  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>124.02</t>
+          <t>65.77</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11 lần</t>
+          <t>19 lần</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Lộc Tiến, H. Phú Lộc, Thừa Thiên Huế</t>
+          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Lộc Tiến, H. Phú Lộc, Thừa Thiên Huế</t>
+          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Lộc Tiến, H. Phú Lộc, Thừa Thiên Huế</t>
+          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149</v>
+        <v>323</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  150L</t>
+          <t xml:space="preserve">  323L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0706083832</t>
+          <t>937478662</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0706083832</t>
+          <t>937478662</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>NGUYEN CONG TRONG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>NGUYEN CONG TRONG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN HAI</t>
+          <t>NGUYEN CONG TRONG</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>310166873935</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>310166873935</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>460166670286</t>
+          <t>310166873935</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13 phút</t>
+          <t>6 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>54 phút</t>
+          <t>87 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVINAQCB010</t>
+          <t>SCVTQC030</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vina</t>
+          <t>Viettel</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10240 (MB)</t>
+          <t>30720 (MB)</t>
         </is>
       </c>
     </row>
@@ -937,9 +937,6 @@
           <t>tính năng định vị</t>
         </is>
       </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Có</t>
@@ -952,9 +949,6 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
-      <c r="B36" t="b">
-        <v>1</v>
-      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Có</t>
@@ -967,9 +961,6 @@
           <t>tính năng video</t>
         </is>
       </c>
-      <c r="B37" t="b">
-        <v>1</v>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Có</t>
@@ -1012,7 +1003,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xuất Excel</t>
+          <t>Mở chức năng "Báo cáo tổng hợp hành vi lái xe"</t>
         </is>
       </c>
     </row>
@@ -1024,8 +1015,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Xuất excel : Các cột trên lưới = các cột excel
-Định dạng cột giống nhau</t>
+          <t>Chuyển tới trang GPS V3 module "Báo cáo tổng hợp hành vi lái xe"</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1039,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_07_17_12_51_24.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_08_23_11_31_52.xlsx</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1051,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12B12822_C</t>
+          <t>12E12123</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1063,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:10:58</t>
+          <t>17:34:08</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1082,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>truongtest78439074</t>
+          <t>truongtest38092352</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1094,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43C03401_C</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1106,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12:49:53 17/07/2024</t>
+          <t>11:31:41 23/08/2024</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C03401_C</t>
+          <t>43C06147_C</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C14819_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12:01:25 23/08/2024</t>
+          <t>11:54:01 26/08/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:35 23/08/2024</t>
+          <t>11:52:51 26/08/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:53</t>
         </is>
       </c>
     </row>
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29   km/h</t>
+          <t>38   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0   km/h</t>
+          <t>40   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.7653</v>
+        <v>132.3462</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>65.77  km</t>
+          <t>132.35  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>65.77</t>
+          <t>132.35</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19 lần</t>
+          <t>16 lần</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
+          <t>Quốc Lộ 1A, X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
+          <t>Quốc Lộ 1A, X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hồ Chí Minh Tây, X. Đa Krông, H. Đa Krông, Quảng Trị</t>
+          <t>Quốc Lộ 1A, X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  323L</t>
+          <t xml:space="preserve">  233L</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>937478662</t>
+          <t>0905266552</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>937478662</t>
+          <t>0905266552</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>LE VUONG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>LE VUONG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NGUYEN CONG TRONG</t>
+          <t>LE VUONG</t>
         </is>
       </c>
     </row>
@@ -744,17 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122481248</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122481248</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>310166873935</t>
+          <t>480122481248</t>
         </is>
       </c>
     </row>
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6 phút</t>
+          <t>26 phút</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>87 phút</t>
+          <t>206 phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>206</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVTQC030</t>
+          <t>SCVINAQCB010</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Viettel</t>
+          <t>Vina</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30720 (MB)</t>
+          <t>10240 (MB)</t>
         </is>
       </c>
     </row>
@@ -937,6 +937,9 @@
           <t>tính năng định vị</t>
         </is>
       </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Có</t>
@@ -949,6 +952,9 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Có</t>
@@ -961,6 +967,9 @@
           <t>tính năng video</t>
         </is>
       </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Có</t>
@@ -1003,7 +1012,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mở chức năng "Báo cáo tổng hợp hành vi lái xe"</t>
+          <t>Gán tất cả xe</t>
         </is>
       </c>
     </row>
@@ -1013,11 +1022,6 @@
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Chuyển tới trang GPS V3 module "Báo cáo tổng hợp hành vi lái xe"</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1039,7 +1043,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_08_23_11_31_52.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_08_26_11_35_15.xlsx</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1055,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12E12123</t>
+          <t>12C12822_C</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1067,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:34:08</t>
+          <t>14:28:18</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1086,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>truongtest38092352</t>
+          <t>truongtest5322193</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1098,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>43C03401_C</t>
+          <t>43C01339_C</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1110,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11:31:41 23/08/2024</t>
+          <t>10:51:43 26/08/2024</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1122,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C06147_C</t>
+          <t>43C03880_C</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -489,9 +489,6 @@
           <t>Tổng số phương tiện fe</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -523,17 +520,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11:54:01 26/08/2024</t>
+          <t>11:15:57 11/10/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:52:51 26/08/2024</t>
+          <t>11:15:57 11/10/2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>11:15:47</t>
         </is>
       </c>
     </row>
@@ -544,16 +541,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38   km/h</t>
+          <t>0   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -564,11 +561,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>40   km/h</t>
+          <t>0   km/h</t>
         </is>
       </c>
     </row>
@@ -579,16 +576,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.3462</v>
+        <v>95.49760000000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>132.35  km</t>
+          <t>95.50  km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>132.35</t>
+          <t>95.50</t>
         </is>
       </c>
     </row>
@@ -599,11 +596,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16 lần</t>
+          <t>15 lần</t>
         </is>
       </c>
     </row>
@@ -615,7 +612,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
     </row>
@@ -632,7 +629,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bật</t>
+          <t>Tắt</t>
         </is>
       </c>
     </row>
@@ -644,17 +641,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
+          <t>Cty Sedovina ( trang thiết bị trường học)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
+          <t>Cty Sedovina ( trang thiết bị trường học)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quốc Lộ 1A, X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
+          <t>Cty Sedovina ( trang thiết bị trường học)</t>
         </is>
       </c>
     </row>
@@ -666,7 +663,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -677,11 +674,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  233L</t>
+          <t xml:space="preserve">  238</t>
         </is>
       </c>
     </row>
@@ -765,16 +762,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>26 phút</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -785,16 +777,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>206 phút</t>
+          <t>2giờ51phút</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -860,16 +852,6 @@
           <t>thời hạn đóng phí</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Xe đến hạn thu phí dịch vụ ngày: 01/07/2025</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -979,28 +961,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mức độ 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mức độ 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Mức độ 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Mức độ 4</t>
+          <t>Kênh lắp camera</t>
         </is>
       </c>
     </row>
@@ -1012,7 +973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gán tất cả xe</t>
+          <t>Xuất excel</t>
         </is>
       </c>
     </row>
@@ -1029,10 +990,8 @@
           <t>Tổng số xe đang ẩn</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1043,7 +1002,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_08_26_11_35_15.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_12_26_08_30_16.xlsx</t>
         </is>
       </c>
     </row>
@@ -1067,14 +1026,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14:28:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>C:\Users\truongtq.BA\PycharmProjects\pythonProject\ba_v2\excel</t>
+          <t>08:29:30</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1038,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>truongtest5322193</t>
+          <t>truongtest60608506</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1050,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>43C01339_C</t>
+          <t>43C01340_C</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1062,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10:51:43 26/08/2024</t>
+          <t>16:15:07 26/09/2024</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1074,357 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Check 120s xe 1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>43C01338_C</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Check 120s xe 2</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>43C01339_C</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Check 120s xe 3</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>43C01340_C</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Check 120s xe 4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>43C03401_C</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Check 120s xe 5</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>43C03402_C</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>số case trống mức 0:</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>số case trống mức 1:</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>số case trống mức 2:</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>số case trống mức 3:</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>số case trống mức 4:</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>số case trống mức nghiêm trọng:</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tổng các case:</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>số case fail mức 0:</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>số case fail mức 1:</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>số case fail mức 2:</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>số case fail mức 3:</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>số case fail mức 4:</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>số case fail mức nghiêm trọng:</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Tổng các case:</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>case fail chung</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>số case pass mức 0:</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>số case pass mức 1:</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>số case pass mức 2:</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>số case pass mức 3:</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>số case pass mức 4:</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>số case fail mức nghiêm trọng:</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tổng các case:</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>case pass chung</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>image_dichuyen</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C03880_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -973,7 +973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Xuất excel</t>
+          <t>Ẩn hiện cột</t>
         </is>
       </c>
     </row>
@@ -990,8 +990,10 @@
           <t>Tổng số xe đang ẩn</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>5</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1002,7 +1004,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2024_12_26_08_30_16.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_09_03_04_41.xlsx</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1028,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08:29:30</t>
+          <t>08:16:03</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1108,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43C01339_C</t>
+          <t>43C01340_C</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1126,7 +1128,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>43C01340_C</t>
+          <t>43C03401_C</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1146,7 +1148,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>43C03401_C</t>
+          <t>43C03402_C</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1166,7 +1168,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43C03402_C</t>
+          <t>43C03880_C</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1185,7 +1187,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1195,7 +1197,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1251,7 +1253,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1365,7 +1367,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82">
@@ -1417,7 +1419,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
     </row>
@@ -1425,6 +1427,81 @@
       <c r="A89" t="inlineStr">
         <is>
           <t>image_dichuyen</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>43C10985_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>data1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>data2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>data3</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>data4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>data5</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>data6</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>data7</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>data8</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>data9</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>data10</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -973,7 +973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tìm địa chỉ</t>
+          <t>Icon x</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://testgps2.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_18_17_46_23.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_20_03_09_56.xlsx</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10:23:08</t>
+          <t>13:45:08</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43C10972_C</t>
         </is>
       </c>
     </row>
@@ -1441,19 +1441,6 @@
           <t>Tên các case</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Login01, Login02, Login03, </t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Login01 Đăng nhập với tài khoản khách hàng có quyền giám sát, 
-Login02 Đăng nhập với tài khoản bình anh, 
-Login03 Đăng nhập với tài khoản đại lý, 
-</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1462,44 +1449,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
           <t>Các bước</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -Mã: Login01
- -Tên sự kiện: Đăng nhập với tài khoản khách hàng có quyền giám sát
- -Tài khoản: "ungroup", "12341234"
- -Các bước thao tác: 1.Tại màn hình đăng nhập, login với tài khoản, mật khẩu
- -Kết quả mong muốn: Đăng nhập thành công vào trang "Giám sát"
-Có danh sách xe và có xe trên bản đồ
- -Kết quả thực tế: 11A11225
- -Trạng thái: Fail
----------------------------------------------------------
- -Mã: Login02
- -Tên sự kiện: Đăng nhập với tài khoản bình anh
- -Tài khoản: Tài khoản bình anh
- -Các bước thao tác: 1.Tại màn hình đăng nhập, login với tài khoản, mật khẩu
- -Kết quả mong muốn: Đăng nhập thành công vào trang "Quản trị(danh sách xe)"
- -Kết quả thực tế: DANH SÁCH XE
- -Trạng thái: Fail
----------------------------------------------------------
- -Mã: Login03
- -Tên sự kiện: Đăng nhập với tài khoản đại lý
- -Tài khoản: "43E02740", "atgmj123"
- -Các bước thao tác: 1.Tại màn hình đăng nhập, login với tài khoản, mật khẩu
- -Kết quả mong muốn: Đăng nhập thành công vào trang "Giám sát"
-Có danh sách xe và có xe trên bản đồ
- -Kết quả thực tế: 43C05815_C
- -Trạng thái: Fail
----------------------------------------------------------
-</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -973,7 +973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Icon x</t>
+          <t>Chuột phải chọn "Xem ảnh camera"</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13:45:08</t>
+          <t>17:48:34</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -973,7 +973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chuột phải chọn "Xem ảnh camera"</t>
+          <t>Tùy chọn</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_20_03_09_56.xlsx</t>
+          <t>https://testgps2.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_21_18_07_14.xlsx</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17:48:34</t>
+          <t>19:22:15</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>43C10972_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
     </row>
@@ -1441,6 +1441,18 @@
           <t>Tên các case</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GiamSat86, GiamSat87, </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GiamSat86 8h gần đây - Xem nhanh, 
+GiamSat87 8h gần đây - Xem chi tiết trên cửa sổ mới, 
+</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1449,13 +1461,38 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
           <t>Các bước</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -Mã: GiamSat86
+ -Tên sự kiện: 8h gần đây - Xem nhanh
+ -Tài khoản: None
+ -Các bước thao tác: 1. Login vào hệ thống
+2. Tại trang giám sát &gt; Chuột phải vào 1 phương tiện  danh sách xe
+3. Hover "Xem lại lộ trình" &gt; 8h gần đây &gt; Xem nhanh
+ -Kết quả mong muốn: Mở Popup: "XEM NHANH LỘ TRÌNH" , biển số, lộ trình
+ -Kết quả thực tế: None
+ -Trạng thái: Fail
+---------------------------------------------------------
+ -Mã: GiamSat87
+ -Tên sự kiện: 8h gần đây - Xem chi tiết trên cửa sổ mới
+ -Tài khoản: None
+ -Các bước thao tác: 1. Login vào hệ thống
+2. Tại trang giám sát &gt; Chuột phải vào 1 phương tiện  danh sách xe
+3. Hover "Xem lại lộ trình" &gt; 8h gần đây &gt; Xem chi tiết trên cửa sổ mới
+ -Kết quả mong muốn: Mở tab mới và chuyển tới trang "Lộ trình" và hiển thị lộ trình xe 8h gần nhất
+ -Kết quả thực tế: None
+ -Trạng thái: Fail
+---------------------------------------------------------
+</t>
         </is>
       </c>
     </row>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43C06100_C</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tùy chọn</t>
+          <t>Đếm  số lần cập nhật xe giám sát trong 1p</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://testgps2.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_21_18_07_14.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_29_03_09_40.xlsx</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>19:22:15</t>
+          <t>03:00</t>
         </is>
       </c>
     </row>
@@ -1088,16 +1088,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43C03401_C</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>04:01:08 29/05/2025</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1108,16 +1108,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43C01340_C</t>
+          <t>43C03402_C</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>04:01:07 29/05/2025</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1128,16 +1128,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>43C03401_C</t>
+          <t>43C03880_C</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>04:00:58 29/05/2025</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1148,16 +1148,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>43C03402_C</t>
+          <t>43C05815_C</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>04:01:19 29/05/2025</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -1168,16 +1168,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43C03880_C</t>
+          <t>43C06100_C</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>04:01:20 29/05/2025</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>43C01338_C</t>
+          <t>43C11008_C</t>
         </is>
       </c>
     </row>
@@ -1443,13 +1443,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">GiamSat86, GiamSat87, </t>
+          <t xml:space="preserve">GiamSat80_1, </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">GiamSat86 8h gần đây - Xem nhanh, 
-GiamSat87 8h gần đây - Xem chi tiết trên cửa sổ mới, 
+          <t xml:space="preserve">GiamSat80_1 Đếm  số lần cập nhật xe giám sát trong 1p, 
 </t>
         </is>
       </c>
@@ -1461,7 +1460,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1472,24 +1471,18 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -Mã: GiamSat86
- -Tên sự kiện: 8h gần đây - Xem nhanh
+          <t xml:space="preserve"> -Mã: GiamSat80_1
+ -Tên sự kiện: Đếm  số lần cập nhật xe giám sát trong 1p
  -Tài khoản: None
  -Các bước thao tác: 1. Login vào hệ thống
-2. Tại trang giám sát &gt; Chuột phải vào 1 phương tiện  danh sách xe
-3. Hover "Xem lại lộ trình" &gt; 8h gần đây &gt; Xem nhanh
- -Kết quả mong muốn: Mở Popup: "XEM NHANH LỘ TRÌNH" , biển số, lộ trình
- -Kết quả thực tế: None
- -Trạng thái: Fail
----------------------------------------------------------
- -Mã: GiamSat87
- -Tên sự kiện: 8h gần đây - Xem chi tiết trên cửa sổ mới
- -Tài khoản: None
- -Các bước thao tác: 1. Login vào hệ thống
-2. Tại trang giám sát &gt; Chuột phải vào 1 phương tiện  danh sách xe
-3. Hover "Xem lại lộ trình" &gt; 8h gần đây &gt; Xem chi tiết trên cửa sổ mới
- -Kết quả mong muốn: Mở tab mới và chuyển tới trang "Lộ trình" và hiển thị lộ trình xe 8h gần nhất
- -Kết quả thực tế: None
+2. Tại trang giám sát, danh sách xe &gt; Click 5 phương tiện bất kỳ
+3. Check số lần cập nhật xe trong 1p
+ -Kết quả mong muốn: trong 60s-80s &gt;= 4 lần cập nhật(xem log, trên 3 phương tiện chậm cập nhật sẽ Fail)
+ -Kết quả thực tế: Phương tiện 1: 43C03401_C Cập nhật 1(Lần): 3
+Phương tiện 2: 43C03402_C Cập nhật 2(Lần): 1
+Phương tiện 3: 43C03880_C Cập nhật 3(Lần): 2
+Phương tiện 4: 43C05815_C Cập nhật 4(Lần): 3
+Phương tiện 5: 43C06100_C Cập nhật 5(Lần): 1
  -Trạng thái: Fail
 ---------------------------------------------------------
 </t>

--- a/bangluudulieu_tamthoi.xlsx
+++ b/bangluudulieu_tamthoi.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C06100_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Đếm  số lần cập nhật xe giám sát trong 1p</t>
+          <t>Ẩn hiện cột</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_05_29_03_09_40.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_43E02740_2025_06_12_04_11_02.xlsx</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12B02533</t>
+          <t>36B02528</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>16:18:46</t>
         </is>
       </c>
     </row>
@@ -1088,16 +1088,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>43C03401_C</t>
+          <t>43C01338_C</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>04:01:08 29/05/2025</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1108,16 +1108,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>43C03402_C</t>
+          <t>43C01340_C</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>04:01:07 29/05/2025</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1128,16 +1128,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>43C03880_C</t>
+          <t>43C03401_C</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>04:00:58 29/05/2025</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1148,16 +1148,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>43C05815_C</t>
+          <t>43C03402_C</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>04:01:19 29/05/2025</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -1168,16 +1168,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43C06100_C</t>
+          <t>43C03880_C</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>04:01:20 29/05/2025</t>
+          <t>True</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>43C11008_C</t>
+          <t>43C11819_C</t>
         </is>
       </c>
     </row>
